--- a/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2015 Promos  (PDP15).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2015 Promos  (PDP15).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,98 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Soul of Ravnica</t>
+          <t>('Soul of Ravnica', ['{4}{U}{U}', 'Creature — Avatar', 'Flying', '{5}{U}{U}: Draw a card for each color among permanents you control.', '{5}{U}{U}, Exile Soul of Ravnica from your graveyard: Draw a card for each color among permanents you control.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{5}{U}{U}: Draw a card for each color among permanents you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{5}{U}{U}, Exile Soul of Ravnica from your graveyard: Draw a card for each color among permanents you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Soul of Zendikar</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{4}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Creature — Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Reach</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{3}{G}{G}: Create a 3/3 green Beast creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{3}{G}{G}, Exile Soul of Zendikar from your graveyard: Create a 3/3 green Beast creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6/6</t>
+          <t>('Soul of Zendikar', ['{4}{G}{G}', 'Creature — Avatar', 'Reach', '{3}{G}{G}: Create a 3/3 green Beast creature token.', '{3}{G}{G}, Exile Soul of Zendikar from your graveyard: Create a 3/3 green Beast creature token.', '6/6'])</t>
         </is>
       </c>
     </row>
